--- a/medicine/Enfance/Tchika_magazine/Tchika_magazine.xlsx
+++ b/medicine/Enfance/Tchika_magazine/Tchika_magazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Tchika est un magazine papier d'empowerment pour les filles de 7 à 12 ans publié en France[1]. 
-Il a été lancé en juin 2019[2].
+Tchika est un magazine papier d'empowerment pour les filles de 7 à 12 ans publié en France. 
+Il a été lancé en juin 2019.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tchika a été créé en juin 2019 par Élisabeth Roman, ex-rédactrice en chef de l'émission Atomes Crochus sur Canal J et du magazine Science et Vie Découvertes[3].
-Pour le lancer, elle a fait appel à un financement participatif sur ulule qui a atteint la somme de 65 040 €, triplant l'objectif initial fixé à 20 000 €[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tchika a été créé en juin 2019 par Élisabeth Roman, ex-rédactrice en chef de l'émission Atomes Crochus sur Canal J et du magazine Science et Vie Découvertes.
+Pour le lancer, elle a fait appel à un financement participatif sur ulule qui a atteint la somme de 65 040 €, triplant l'objectif initial fixé à 20 000 €.
 Ce projet avait auparavant été incubé au Tank media[Quoi ?] durant deux mois fin 2018.
 </t>
         </is>
@@ -546,10 +560,12 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le magazine contient des portraits de femmes célèbres d’hier et d’aujourd’hui, des articles pour déconstruire les stéréotypes de genre, ainsi que des articles informatifs sur la science, l'écologie, et les animaux[1].
-Les lectrices sont accompagnées par 4 mascottes : Cassandre, Maë, Manon et Lola créées par la dessinatrice Isabelle Mandrou[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le magazine contient des portraits de femmes célèbres d’hier et d’aujourd’hui, des articles pour déconstruire les stéréotypes de genre, ainsi que des articles informatifs sur la science, l'écologie, et les animaux.
+Les lectrices sont accompagnées par 4 mascottes : Cassandre, Maë, Manon et Lola créées par la dessinatrice Isabelle Mandrou.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Diffusion et audience</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tchika est un magazine trimestriel qui n'est pas vendu en kiosque, mais uniquement par abonnement[1]. Le premier numéro a été édité à 2 000 exemplaires[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tchika est un magazine trimestriel qui n'est pas vendu en kiosque, mais uniquement par abonnement. Le premier numéro a été édité à 2 000 exemplaires.
 </t>
         </is>
       </c>
